--- a/Tesis data/Data findex noscal (original).xlsx
+++ b/Tesis data/Data findex noscal (original).xlsx
@@ -1,33 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gabriel/Documents/GitHub/GabrielDelC/Tesis data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2497e95eb19b2b76/Desktop/Tesis general/Tesis Lenovo/Tesis-paper/Tesis data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{582B3A2F-8B9F-6B43-AC1B-5504F5AD70E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{582B3A2F-8B9F-6B43-AC1B-5504F5AD70E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C2A74817-5844-49F2-9AC5-1963226760C6}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -45,7 +33,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -102,7 +90,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -706,262 +694,262 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="86"/>
                 <c:pt idx="0">
-                  <c:v>-0.86652274692386677</c:v>
+                  <c:v>-0.86277925909708286</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.6305260331429101</c:v>
+                  <c:v>1.6438916533595966</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-2.8705304439045216</c:v>
+                  <c:v>-2.8297221227773077</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-11.615437108255811</c:v>
+                  <c:v>-10.966222971708078</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-15.014404205735898</c:v>
+                  <c:v>-13.941599279404674</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-13.287344587133704</c:v>
+                  <c:v>-12.442410715832498</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-10.158469124845086</c:v>
+                  <c:v>-9.6595334366743142</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-8.3698002521212604</c:v>
+                  <c:v>-8.029103605219122</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-10.648029317152934</c:v>
+                  <c:v>-10.100723571713131</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-12.329564560454244</c:v>
+                  <c:v>-11.599772746296209</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-30.645760965675954</c:v>
+                  <c:v>-26.395028108172276</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-7.4202918505502824</c:v>
+                  <c:v>-7.1516731712767347</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-0.56937690485808135</c:v>
+                  <c:v>-0.56775902662388245</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-28.294932267119645</c:v>
+                  <c:v>-24.644202480262546</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-36.636531790758056</c:v>
+                  <c:v>-30.675050151165635</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-9.3175839813736054</c:v>
+                  <c:v>-8.8966709713167162</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-6.4093812964367407</c:v>
+                  <c:v>-6.2082993371365864</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-65.670215333170205</c:v>
+                  <c:v>-48.144135538069627</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-76.245332370627125</c:v>
+                  <c:v>-53.34795038776349</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-175.49237140251927</c:v>
+                  <c:v>-82.707956680762024</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>83.870728560505086</c:v>
+                  <c:v>131.33745104650922</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0</c:v>
+                  <c:v>-223.57327266254026</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>103.81890487507974</c:v>
+                  <c:v>182.40980767373699</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>55.152736431664387</c:v>
+                  <c:v>73.590234941079288</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>7.8094765580761338</c:v>
+                  <c:v>8.122511674137888</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>4.9372128364875154</c:v>
+                  <c:v>5.0611240247933402</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>7.1856547926270133</c:v>
+                  <c:v>7.4501193583030183</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>23.746900825170371</c:v>
+                  <c:v>26.80356975385773</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>9.5219953031454612</c:v>
+                  <c:v>9.9900755027186978</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3.0778188342152268</c:v>
+                  <c:v>3.1256733749739336</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-19.557446835128346</c:v>
+                  <c:v>-17.763789866593754</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-6.3454897825796355</c:v>
+                  <c:v>-6.1483552521582485</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-12.601793390272389</c:v>
+                  <c:v>-11.840096386971233</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>21.554001560235104</c:v>
+                  <c:v>24.053162255004121</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-9.2529508060943932</c:v>
+                  <c:v>-8.8377689639120618</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>-6.4873474460550486</c:v>
+                  <c:v>-6.2813966155354217</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1.1593227765750762</c:v>
+                  <c:v>1.1660689679149703</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>21.139439308595978</c:v>
+                  <c:v>23.539949201140516</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>11.411726773598552</c:v>
+                  <c:v>12.088356065487615</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>6.4412949507139414</c:v>
+                  <c:v>6.6532732003579023</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>-5.4463698261700877</c:v>
+                  <c:v>-5.3007114278240168</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>7.165770805541186</c:v>
+                  <c:v>7.4287561144488281</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>13.420758663980543</c:v>
+                  <c:v>14.363019735542276</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>5.4042365012356646</c:v>
+                  <c:v>5.5529318720494807</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>3.1710237799387317</c:v>
+                  <c:v>3.2218364102609596</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>1.0369654853032453E-2</c:v>
+                  <c:v>1.0370192520335069E-2</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>7.0629289067303258</c:v>
+                  <c:v>7.3183311330981553</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>-3.9478034458565543</c:v>
+                  <c:v>-3.8708930962496813</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>2.4513193414653731</c:v>
+                  <c:v>2.4816111841913417</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>-7.721700794234609</c:v>
+                  <c:v>-7.4311050045842375</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>-3.1234806945305156</c:v>
+                  <c:v>-3.0752039798248338</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>-4.5580534390614531</c:v>
+                  <c:v>-4.4557346518393235</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>-3.3375639344808619</c:v>
+                  <c:v>-3.2824817707891349</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>-2.8824725021610118</c:v>
+                  <c:v>-2.8413255611109332</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>5.6421611285007414</c:v>
+                  <c:v>5.8043672865490805</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>2.7311912242987066</c:v>
+                  <c:v>2.7688301340338723</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>-1.4721288091376841</c:v>
+                  <c:v>-1.4613459702578873</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>3.3893353207979802</c:v>
+                  <c:v>3.4474277481971431</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>5.5274915811962853</c:v>
+                  <c:v>5.6831114326093575</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>-4.3153629607049924</c:v>
+                  <c:v>-4.2235762179653653</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>3.4722543933040577</c:v>
+                  <c:v>3.533240968663816</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>-3.1879396980504349</c:v>
+                  <c:v>-3.1376606058812171</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.93498739759256233</c:v>
+                  <c:v>0.93937205945205693</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>3.3254684463815374</c:v>
+                  <c:v>3.3813802029266293</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>3.0587353228475123</c:v>
+                  <c:v>3.1059952530704211</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>-3.8217571910555503</c:v>
+                  <c:v>-3.7496495618089791</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>-3.2370273410518102</c:v>
+                  <c:v>-3.1851963771964096</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>3.3710358715805313</c:v>
+                  <c:v>3.4284991706551597</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>-0.72700202538592429</c:v>
+                  <c:v>-0.72436575810207693</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>3.6085138684619675</c:v>
+                  <c:v>3.6744109763353507</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>-5.3788092718821567E-2</c:v>
+                  <c:v>-5.3773629517507526E-2</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>13.49593619952792</c:v>
+                  <c:v>14.449027360512714</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>2.3915738707249146</c:v>
+                  <c:v>2.4204013500394765</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>-1.2651963158712967</c:v>
+                  <c:v>-1.2572263545764912</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>4.0801561644660751</c:v>
+                  <c:v>4.164538263870357</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>-1.0887758610251577</c:v>
+                  <c:v>-1.0828701494008728</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>-31.51908511220881</c:v>
+                  <c:v>-27.03503934663604</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>-35.725030703174404</c:v>
+                  <c:v>-30.040263832238541</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>-106.19666112693842</c:v>
+                  <c:v>-65.422486404055817</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>25.929073826484196</c:v>
+                  <c:v>29.601054991678755</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>46.954633127289881</c:v>
+                  <c:v>59.92684905151112</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>55.418826121189944</c:v>
+                  <c:v>74.052755745465319</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>28.074884155277907</c:v>
+                  <c:v>32.4120997994821</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>16.197074510065228</c:v>
+                  <c:v>17.582584215116746</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>2.5281929685001416</c:v>
+                  <c:v>2.5604228045466728</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>1.9296924195918708</c:v>
+                  <c:v>1.9484313240920255</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2619,16 +2607,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C88"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="177" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView tabSelected="1" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:C88"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2636,7 +2624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>36981</v>
       </c>
@@ -2644,7 +2632,7 @@
         <v>-5.3728653191570466</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>37072</v>
       </c>
@@ -2652,11 +2640,11 @@
         <v>-5.3265093515641393</v>
       </c>
       <c r="C3">
-        <f>LN(B3/B2)*100</f>
-        <v>-0.86652274692386677</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+        <f>(B3-B2)/B2*100</f>
+        <v>-0.86277925909708286</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>37164</v>
       </c>
@@ -2664,11 +2652,11 @@
         <v>-5.4140713942099206</v>
       </c>
       <c r="C4">
-        <f t="shared" ref="C4:C67" si="0">LN(B4/B3)*100</f>
-        <v>1.6305260331429101</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" ref="C4:C67" si="0">(B4-B3)/B3*100</f>
+        <v>1.6438916533595966</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>37256</v>
       </c>
@@ -2677,10 +2665,10 @@
       </c>
       <c r="C5">
         <f t="shared" si="0"/>
-        <v>-2.8705304439045216</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-2.8297221227773077</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>37346</v>
       </c>
@@ -2689,10 +2677,10 @@
       </c>
       <c r="C6">
         <f t="shared" si="0"/>
-        <v>-11.615437108255811</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-10.966222971708078</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>37437</v>
       </c>
@@ -2701,10 +2689,10 @@
       </c>
       <c r="C7">
         <f t="shared" si="0"/>
-        <v>-15.014404205735898</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-13.941599279404674</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>37529</v>
       </c>
@@ -2713,10 +2701,10 @@
       </c>
       <c r="C8">
         <f t="shared" si="0"/>
-        <v>-13.287344587133704</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-12.442410715832498</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>37621</v>
       </c>
@@ -2725,10 +2713,10 @@
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
-        <v>-10.158469124845086</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-9.6595334366743142</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>37711</v>
       </c>
@@ -2737,10 +2725,10 @@
       </c>
       <c r="C10">
         <f t="shared" si="0"/>
-        <v>-8.3698002521212604</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-8.029103605219122</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>37802</v>
       </c>
@@ -2749,10 +2737,10 @@
       </c>
       <c r="C11">
         <f t="shared" si="0"/>
-        <v>-10.648029317152934</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-10.100723571713131</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>37894</v>
       </c>
@@ -2761,10 +2749,10 @@
       </c>
       <c r="C12">
         <f t="shared" si="0"/>
-        <v>-12.329564560454244</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-11.599772746296209</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>37986</v>
       </c>
@@ -2773,10 +2761,10 @@
       </c>
       <c r="C13">
         <f t="shared" si="0"/>
-        <v>-30.645760965675954</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-26.395028108172276</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>38077</v>
       </c>
@@ -2785,10 +2773,10 @@
       </c>
       <c r="C14">
         <f t="shared" si="0"/>
-        <v>-7.4202918505502824</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-7.1516731712767347</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>38168</v>
       </c>
@@ -2797,10 +2785,10 @@
       </c>
       <c r="C15">
         <f t="shared" si="0"/>
-        <v>-0.56937690485808135</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-0.56775902662388245</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>38260</v>
       </c>
@@ -2809,10 +2797,10 @@
       </c>
       <c r="C16">
         <f t="shared" si="0"/>
-        <v>-28.294932267119645</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-24.644202480262546</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>38352</v>
       </c>
@@ -2821,10 +2809,10 @@
       </c>
       <c r="C17">
         <f t="shared" si="0"/>
-        <v>-36.636531790758056</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-30.675050151165635</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>38442</v>
       </c>
@@ -2833,10 +2821,10 @@
       </c>
       <c r="C18">
         <f t="shared" si="0"/>
-        <v>-9.3175839813736054</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-8.8966709713167162</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>38533</v>
       </c>
@@ -2845,10 +2833,10 @@
       </c>
       <c r="C19">
         <f t="shared" si="0"/>
-        <v>-6.4093812964367407</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-6.2082993371365864</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>38625</v>
       </c>
@@ -2857,10 +2845,10 @@
       </c>
       <c r="C20">
         <f t="shared" si="0"/>
-        <v>-65.670215333170205</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-48.144135538069627</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>38717</v>
       </c>
@@ -2869,10 +2857,10 @@
       </c>
       <c r="C21">
         <f t="shared" si="0"/>
-        <v>-76.245332370627125</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-53.34795038776349</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>38807</v>
       </c>
@@ -2881,10 +2869,10 @@
       </c>
       <c r="C22">
         <f t="shared" si="0"/>
-        <v>-175.49237140251927</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-82.707956680762024</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>38898</v>
       </c>
@@ -2893,22 +2881,22 @@
       </c>
       <c r="C23">
         <f t="shared" si="0"/>
-        <v>83.870728560505086</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+        <v>131.33745104650922</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>38990</v>
       </c>
       <c r="B24">
         <v>8.4535744781641275E-2</v>
       </c>
-      <c r="C24" t="e">
-        <f t="shared" si="0"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C24">
+        <f t="shared" si="0"/>
+        <v>-223.57327266254026</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>39082</v>
       </c>
@@ -2917,10 +2905,10 @@
       </c>
       <c r="C25">
         <f t="shared" si="0"/>
-        <v>103.81890487507974</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+        <v>182.40980767373699</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>39172</v>
       </c>
@@ -2929,10 +2917,10 @@
       </c>
       <c r="C26">
         <f t="shared" si="0"/>
-        <v>55.152736431664387</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+        <v>73.590234941079288</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>39263</v>
       </c>
@@ -2941,10 +2929,10 @@
       </c>
       <c r="C27">
         <f t="shared" si="0"/>
-        <v>7.8094765580761338</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+        <v>8.122511674137888</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>39355</v>
       </c>
@@ -2953,10 +2941,10 @@
       </c>
       <c r="C28">
         <f t="shared" si="0"/>
-        <v>4.9372128364875154</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+        <v>5.0611240247933402</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>39447</v>
       </c>
@@ -2965,10 +2953,10 @@
       </c>
       <c r="C29">
         <f t="shared" si="0"/>
-        <v>7.1856547926270133</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+        <v>7.4501193583030183</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>39538</v>
       </c>
@@ -2977,10 +2965,10 @@
       </c>
       <c r="C30">
         <f t="shared" si="0"/>
-        <v>23.746900825170371</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+        <v>26.80356975385773</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>39629</v>
       </c>
@@ -2989,10 +2977,10 @@
       </c>
       <c r="C31">
         <f t="shared" si="0"/>
-        <v>9.5219953031454612</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+        <v>9.9900755027186978</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>39721</v>
       </c>
@@ -3001,10 +2989,10 @@
       </c>
       <c r="C32">
         <f t="shared" si="0"/>
-        <v>3.0778188342152268</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+        <v>3.1256733749739336</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>39813</v>
       </c>
@@ -3013,10 +3001,10 @@
       </c>
       <c r="C33">
         <f t="shared" si="0"/>
-        <v>-19.557446835128346</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-17.763789866593754</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>39903</v>
       </c>
@@ -3025,10 +3013,10 @@
       </c>
       <c r="C34">
         <f t="shared" si="0"/>
-        <v>-6.3454897825796355</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-6.1483552521582485</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>39994</v>
       </c>
@@ -3037,10 +3025,10 @@
       </c>
       <c r="C35">
         <f t="shared" si="0"/>
-        <v>-12.601793390272389</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-11.840096386971233</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>40086</v>
       </c>
@@ -3049,10 +3037,10 @@
       </c>
       <c r="C36">
         <f t="shared" si="0"/>
-        <v>21.554001560235104</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+        <v>24.053162255004121</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>40178</v>
       </c>
@@ -3061,10 +3049,10 @@
       </c>
       <c r="C37">
         <f t="shared" si="0"/>
-        <v>-9.2529508060943932</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-8.8377689639120618</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>40268</v>
       </c>
@@ -3073,10 +3061,10 @@
       </c>
       <c r="C38">
         <f t="shared" si="0"/>
-        <v>-6.4873474460550486</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-6.2813966155354217</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>40359</v>
       </c>
@@ -3085,10 +3073,10 @@
       </c>
       <c r="C39">
         <f t="shared" si="0"/>
-        <v>1.1593227765750762</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1.1660689679149703</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>40451</v>
       </c>
@@ -3097,10 +3085,10 @@
       </c>
       <c r="C40">
         <f t="shared" si="0"/>
-        <v>21.139439308595978</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+        <v>23.539949201140516</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <v>40543</v>
       </c>
@@ -3109,10 +3097,10 @@
       </c>
       <c r="C41">
         <f t="shared" si="0"/>
-        <v>11.411726773598552</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+        <v>12.088356065487615</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <v>40633</v>
       </c>
@@ -3121,10 +3109,10 @@
       </c>
       <c r="C42">
         <f t="shared" si="0"/>
-        <v>6.4412949507139414</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+        <v>6.6532732003579023</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <v>40724</v>
       </c>
@@ -3133,10 +3121,10 @@
       </c>
       <c r="C43">
         <f t="shared" si="0"/>
-        <v>-5.4463698261700877</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-5.3007114278240168</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <v>40816</v>
       </c>
@@ -3145,10 +3133,10 @@
       </c>
       <c r="C44">
         <f t="shared" si="0"/>
-        <v>7.165770805541186</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+        <v>7.4287561144488281</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <v>40908</v>
       </c>
@@ -3157,10 +3145,10 @@
       </c>
       <c r="C45">
         <f t="shared" si="0"/>
-        <v>13.420758663980543</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+        <v>14.363019735542276</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <v>40999</v>
       </c>
@@ -3169,10 +3157,10 @@
       </c>
       <c r="C46">
         <f t="shared" si="0"/>
-        <v>5.4042365012356646</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+        <v>5.5529318720494807</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
         <v>41090</v>
       </c>
@@ -3181,10 +3169,10 @@
       </c>
       <c r="C47">
         <f t="shared" si="0"/>
-        <v>3.1710237799387317</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+        <v>3.2218364102609596</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
         <v>41182</v>
       </c>
@@ -3193,10 +3181,10 @@
       </c>
       <c r="C48">
         <f t="shared" si="0"/>
-        <v>1.0369654853032453E-2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1.0370192520335069E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
         <v>41274</v>
       </c>
@@ -3205,10 +3193,10 @@
       </c>
       <c r="C49">
         <f t="shared" si="0"/>
-        <v>7.0629289067303258</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+        <v>7.3183311330981553</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
         <v>41364</v>
       </c>
@@ -3217,10 +3205,10 @@
       </c>
       <c r="C50">
         <f t="shared" si="0"/>
-        <v>-3.9478034458565543</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-3.8708930962496813</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <v>41455</v>
       </c>
@@ -3229,10 +3217,10 @@
       </c>
       <c r="C51">
         <f t="shared" si="0"/>
-        <v>2.4513193414653731</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+        <v>2.4816111841913417</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
         <v>41547</v>
       </c>
@@ -3241,10 +3229,10 @@
       </c>
       <c r="C52">
         <f t="shared" si="0"/>
-        <v>-7.721700794234609</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-7.4311050045842375</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
         <v>41639</v>
       </c>
@@ -3253,10 +3241,10 @@
       </c>
       <c r="C53">
         <f t="shared" si="0"/>
-        <v>-3.1234806945305156</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-3.0752039798248338</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
         <v>41729</v>
       </c>
@@ -3265,10 +3253,10 @@
       </c>
       <c r="C54">
         <f t="shared" si="0"/>
-        <v>-4.5580534390614531</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-4.4557346518393235</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
         <v>41820</v>
       </c>
@@ -3277,10 +3265,10 @@
       </c>
       <c r="C55">
         <f t="shared" si="0"/>
-        <v>-3.3375639344808619</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-3.2824817707891349</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
         <v>41912</v>
       </c>
@@ -3289,10 +3277,10 @@
       </c>
       <c r="C56">
         <f t="shared" si="0"/>
-        <v>-2.8824725021610118</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-2.8413255611109332</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
         <v>42004</v>
       </c>
@@ -3301,10 +3289,10 @@
       </c>
       <c r="C57">
         <f t="shared" si="0"/>
-        <v>5.6421611285007414</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+        <v>5.8043672865490805</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
         <v>42094</v>
       </c>
@@ -3313,10 +3301,10 @@
       </c>
       <c r="C58">
         <f t="shared" si="0"/>
-        <v>2.7311912242987066</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+        <v>2.7688301340338723</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
         <v>42185</v>
       </c>
@@ -3325,10 +3313,10 @@
       </c>
       <c r="C59">
         <f t="shared" si="0"/>
-        <v>-1.4721288091376841</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-1.4613459702578873</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
         <v>42277</v>
       </c>
@@ -3337,10 +3325,10 @@
       </c>
       <c r="C60">
         <f t="shared" si="0"/>
-        <v>3.3893353207979802</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+        <v>3.4474277481971431</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
         <v>42369</v>
       </c>
@@ -3349,10 +3337,10 @@
       </c>
       <c r="C61">
         <f t="shared" si="0"/>
-        <v>5.5274915811962853</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+        <v>5.6831114326093575</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
         <v>42460</v>
       </c>
@@ -3361,10 +3349,10 @@
       </c>
       <c r="C62">
         <f t="shared" si="0"/>
-        <v>-4.3153629607049924</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-4.2235762179653653</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
         <v>42551</v>
       </c>
@@ -3373,10 +3361,10 @@
       </c>
       <c r="C63">
         <f t="shared" si="0"/>
-        <v>3.4722543933040577</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+        <v>3.533240968663816</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
         <v>42643</v>
       </c>
@@ -3385,10 +3373,10 @@
       </c>
       <c r="C64">
         <f t="shared" si="0"/>
-        <v>-3.1879396980504349</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-3.1376606058812171</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
         <v>42735</v>
       </c>
@@ -3397,10 +3385,10 @@
       </c>
       <c r="C65">
         <f t="shared" si="0"/>
-        <v>0.93498739759256233</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.93937205945205693</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
         <v>42825</v>
       </c>
@@ -3409,10 +3397,10 @@
       </c>
       <c r="C66">
         <f t="shared" si="0"/>
-        <v>3.3254684463815374</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+        <v>3.3813802029266293</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
         <v>42916</v>
       </c>
@@ -3421,10 +3409,10 @@
       </c>
       <c r="C67">
         <f t="shared" si="0"/>
-        <v>3.0587353228475123</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+        <v>3.1059952530704211</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="2">
         <v>43008</v>
       </c>
@@ -3432,11 +3420,11 @@
         <v>0.98616435315088158</v>
       </c>
       <c r="C68">
-        <f t="shared" ref="C68:C88" si="1">LN(B68/B67)*100</f>
-        <v>-3.8217571910555503</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" ref="C68:C88" si="1">(B68-B67)/B67*100</f>
+        <v>-3.7496495618089791</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
         <v>43100</v>
       </c>
@@ -3445,10 +3433,10 @@
       </c>
       <c r="C69">
         <f t="shared" si="1"/>
-        <v>-3.2370273410518102</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-3.1851963771964096</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
         <v>43190</v>
       </c>
@@ -3457,10 +3445,10 @@
       </c>
       <c r="C70">
         <f t="shared" si="1"/>
-        <v>3.3710358715805313</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+        <v>3.4284991706551597</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
         <v>43281</v>
       </c>
@@ -3469,10 +3457,10 @@
       </c>
       <c r="C71">
         <f t="shared" si="1"/>
-        <v>-0.72700202538592429</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-0.72436575810207693</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
         <v>43373</v>
       </c>
@@ -3481,10 +3469,10 @@
       </c>
       <c r="C72">
         <f t="shared" si="1"/>
-        <v>3.6085138684619675</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+        <v>3.6744109763353507</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" s="2">
         <v>43465</v>
       </c>
@@ -3493,10 +3481,10 @@
       </c>
       <c r="C73">
         <f t="shared" si="1"/>
-        <v>-5.3788092718821567E-2</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-5.3773629517507526E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="2">
         <v>43555</v>
       </c>
@@ -3505,10 +3493,10 @@
       </c>
       <c r="C74">
         <f t="shared" si="1"/>
-        <v>13.49593619952792</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+        <v>14.449027360512714</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" s="2">
         <v>43646</v>
       </c>
@@ -3517,10 +3505,10 @@
       </c>
       <c r="C75">
         <f t="shared" si="1"/>
-        <v>2.3915738707249146</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+        <v>2.4204013500394765</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" s="2">
         <v>43738</v>
       </c>
@@ -3529,10 +3517,10 @@
       </c>
       <c r="C76">
         <f t="shared" si="1"/>
-        <v>-1.2651963158712967</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-1.2572263545764912</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="2">
         <v>43830</v>
       </c>
@@ -3541,10 +3529,10 @@
       </c>
       <c r="C77">
         <f t="shared" si="1"/>
-        <v>4.0801561644660751</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+        <v>4.164538263870357</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" s="2">
         <v>43921</v>
       </c>
@@ -3553,10 +3541,10 @@
       </c>
       <c r="C78">
         <f t="shared" si="1"/>
-        <v>-1.0887758610251577</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-1.0828701494008728</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" s="2">
         <v>44012</v>
       </c>
@@ -3565,10 +3553,10 @@
       </c>
       <c r="C79">
         <f t="shared" si="1"/>
-        <v>-31.51908511220881</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-27.03503934663604</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" s="2">
         <v>44104</v>
       </c>
@@ -3577,10 +3565,10 @@
       </c>
       <c r="C80">
         <f t="shared" si="1"/>
-        <v>-35.725030703174404</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-30.040263832238541</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" s="2">
         <v>44196</v>
       </c>
@@ -3589,10 +3577,10 @@
       </c>
       <c r="C81">
         <f t="shared" si="1"/>
-        <v>-106.19666112693842</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-65.422486404055817</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" s="2">
         <v>44286</v>
       </c>
@@ -3601,10 +3589,10 @@
       </c>
       <c r="C82">
         <f t="shared" si="1"/>
-        <v>25.929073826484196</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+        <v>29.601054991678755</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" s="2">
         <v>44377</v>
       </c>
@@ -3613,10 +3601,10 @@
       </c>
       <c r="C83">
         <f t="shared" si="1"/>
-        <v>46.954633127289881</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+        <v>59.92684905151112</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" s="2">
         <v>44469</v>
       </c>
@@ -3625,10 +3613,10 @@
       </c>
       <c r="C84">
         <f t="shared" si="1"/>
-        <v>55.418826121189944</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+        <v>74.052755745465319</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" s="2">
         <v>44561</v>
       </c>
@@ -3637,10 +3625,10 @@
       </c>
       <c r="C85">
         <f t="shared" si="1"/>
-        <v>28.074884155277907</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+        <v>32.4120997994821</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" s="2">
         <v>44651</v>
       </c>
@@ -3649,10 +3637,10 @@
       </c>
       <c r="C86">
         <f t="shared" si="1"/>
-        <v>16.197074510065228</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+        <v>17.582584215116746</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" s="2">
         <v>44742</v>
       </c>
@@ -3661,10 +3649,10 @@
       </c>
       <c r="C87">
         <f t="shared" si="1"/>
-        <v>2.5281929685001416</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+        <v>2.5604228045466728</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" s="2">
         <v>44834</v>
       </c>
@@ -3673,7 +3661,7 @@
       </c>
       <c r="C88">
         <f t="shared" si="1"/>
-        <v>1.9296924195918708</v>
+        <v>1.9484313240920255</v>
       </c>
     </row>
   </sheetData>

--- a/Tesis data/Data findex noscal (original).xlsx
+++ b/Tesis data/Data findex noscal (original).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gabriel/Documents/GitHub/GabrielDelC/Tesis data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{582B3A2F-8B9F-6B43-AC1B-5504F5AD70E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77B9647C-5383-0548-9ED9-00D61D3C082A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -189,270 +189,267 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$88</c:f>
+              <c:f>Sheet1!$C$3:$C$88</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
-                  <c:v>-5.3728653191570466</c:v>
+                  <c:v>-0.86277925909708286</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-5.3265093515641393</c:v>
+                  <c:v>1.6438916533595966</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-5.4140713942099206</c:v>
+                  <c:v>-2.8297221227773077</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-5.2608682182250046</c:v>
+                  <c:v>-10.966222971708078</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-4.6839496791667248</c:v>
+                  <c:v>-13.941599279404674</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-4.0309321844483392</c:v>
+                  <c:v>-12.442410715832498</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-3.529387046382598</c:v>
+                  <c:v>-9.6595334366743142</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-3.188464724527619</c:v>
+                  <c:v>-8.029103605219122</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-2.932459588379432</c:v>
+                  <c:v>-10.100723571713131</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-2.6362599515050289</c:v>
+                  <c:v>-11.599772746296209</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-2.3304597881288269</c:v>
+                  <c:v>-26.395028108172276</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-1.715334272002571</c:v>
+                  <c:v>-7.1516731712767347</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-1.5926591710740481</c:v>
+                  <c:v>-0.56775902662388245</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-1.5836167048669221</c:v>
+                  <c:v>-24.644202480262546</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-1.193346997608256</c:v>
+                  <c:v>-30.675050151165635</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-0.82728720761449415</c:v>
+                  <c:v>-8.8966709713167162</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-0.7536861867652388</c:v>
+                  <c:v>-6.2082993371365864</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-0.70689509222820246</c:v>
+                  <c:v>-48.144135538069627</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-0.36656656091389439</c:v>
+                  <c:v>-53.34795038776349</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-0.17101081385941919</c:v>
+                  <c:v>-82.707956680762024</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-2.9571264013152191E-2</c:v>
+                  <c:v>131.33745104650922</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-6.8409408410259942E-2</c:v>
+                  <c:v>-223.57327266254026</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>8.4535744781641275E-2</c:v>
+                  <c:v>182.40980767373699</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.2387372342533943</c:v>
+                  <c:v>73.590234941079288</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.41442452583230199</c:v>
+                  <c:v>8.122511674137888</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.44808620632352131</c:v>
+                  <c:v>5.0611240247933402</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.4707644049635461</c:v>
+                  <c:v>7.4501193583030183</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.50583691502973527</c:v>
+                  <c:v>26.80356975385773</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.64141926539049243</c:v>
+                  <c:v>9.9900755027186978</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.70549753429198625</c:v>
+                  <c:v>3.1256733749739336</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.72754908288244846</c:v>
+                  <c:v>-17.763789866593754</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.59830879262288028</c:v>
+                  <c:v>-6.1483552521582485</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.56152264254752682</c:v>
+                  <c:v>-11.840096386971233</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.4950378204352317</c:v>
+                  <c:v>24.053162255004121</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.61411007060815392</c:v>
+                  <c:v>-8.8377689639120618</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.55983644138368804</c:v>
+                  <c:v>-6.2813966155354217</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.52467089410207912</c:v>
+                  <c:v>1.1660689679149703</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.53078891858188548</c:v>
+                  <c:v>23.539949201140516</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.65573636038134442</c:v>
+                  <c:v>12.088356065487615</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.73500410647511039</c:v>
+                  <c:v>6.6532732003579023</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.78390593771274897</c:v>
+                  <c:v>-5.3007114278240168</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.74235334608901826</c:v>
+                  <c:v>7.4287561144488281</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.79750096567742168</c:v>
+                  <c:v>14.363019735542276</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.91204618676881</c:v>
+                  <c:v>5.5529318720494807</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.96269149016170719</c:v>
+                  <c:v>3.2218364102609596</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.99370783511022087</c:v>
+                  <c:v>1.0370192520335069E-2</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.99381088452581146</c:v>
+                  <c:v>7.3183311330981553</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1.0665412558921821</c:v>
+                  <c:v>-3.8708930962496813</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>1.025256584049197</c:v>
+                  <c:v>2.4816111841913417</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>1.0506994661056199</c:v>
+                  <c:v>-7.4311050045842375</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.97262088549670533</c:v>
+                  <c:v>-3.0752039798248338</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.94271080931730311</c:v>
+                  <c:v>-4.4557346518393235</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.9007061171199171</c:v>
+                  <c:v>-3.2824817707891349</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.87114060301707319</c:v>
+                  <c:v>-2.8413255611109332</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.84638866239033317</c:v>
+                  <c:v>5.8043672865490805</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.89551616902717801</c:v>
+                  <c:v>2.7688301340338723</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.92031149057034822</c:v>
+                  <c:v>-1.4613459702578873</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.90686255568907814</c:v>
+                  <c:v>3.4474277481971431</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.93812598707191319</c:v>
+                  <c:v>5.6831114326093575</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.99144073229547647</c:v>
+                  <c:v>-4.2235762179653653</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.94956647731102306</c:v>
+                  <c:v>3.533240968663816</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.98311694911207392</c:v>
+                  <c:v>-3.1376606058812171</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.95227007589004309</c:v>
+                  <c:v>0.93937205945205693</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.96121543491347705</c:v>
+                  <c:v>3.3813802029266293</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.99371778333711647</c:v>
+                  <c:v>3.1059952530704211</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>1.0245826105164839</c:v>
+                  <c:v>-3.7496495618089791</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.98616435315088158</c:v>
+                  <c:v>-3.1851963771964096</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.9547530819011173</c:v>
+                  <c:v>3.4284991706551597</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.98748678339590168</c:v>
+                  <c:v>-0.72436575810207693</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.98033376727119814</c:v>
+                  <c:v>3.6744109763353507</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>1.0163552588205329</c:v>
+                  <c:v>-5.3773629517507526E-2</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>1.015808727709073</c:v>
+                  <c:v>14.449027360512714</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>1.1625832087062331</c:v>
+                  <c:v>2.4204013500394765</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>1.190722388385091</c:v>
+                  <c:v>-1.2572263545764912</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>1.175752312708471</c:v>
+                  <c:v>4.164538263870357</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>1.224716967659556</c:v>
+                  <c:v>-1.0828701494008728</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>1.2114548732021231</c:v>
+                  <c:v>-27.03503934663604</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.88393757156518937</c:v>
+                  <c:v>-30.040263832238541</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.61840039295472415</c:v>
+                  <c:v>-65.422486404055817</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.213827479951292</c:v>
+                  <c:v>29.601054991678755</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.27712266987899481</c:v>
+                  <c:v>59.92684905151112</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.44319355394489751</c:v>
+                  <c:v>74.052755745465319</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.77139059392735954</c:v>
+                  <c:v>32.4120997994821</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>1.021414483074913</c:v>
+                  <c:v>17.582584215116746</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>1.201005544746959</c:v>
+                  <c:v>2.5604228045466728</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>1.2317563645985301</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>1.255756291442865</c:v>
+                  <c:v>1.9484313240920255</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -460,7 +457,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-5B73-B54C-ACAD-0720039A7E1E}"/>
+              <c16:uniqueId val="{00000000-068B-1D45-B7F5-578B3D2771DF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -473,11 +470,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1620339215"/>
-        <c:axId val="1620340943"/>
+        <c:axId val="1976473087"/>
+        <c:axId val="1669181503"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1620339215"/>
+        <c:axId val="1976473087"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -519,7 +516,7 @@
             <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1620340943"/>
+        <c:crossAx val="1669181503"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -527,7 +524,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1620340943"/>
+        <c:axId val="1669181503"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -578,516 +575,7 @@
             <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1620339215"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="es-PE"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="es-PE"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$C$3:$C$88</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="86"/>
-                <c:pt idx="0">
-                  <c:v>-0.86652274692386677</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.6305260331429101</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-2.8705304439045216</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-11.615437108255811</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-15.014404205735898</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-13.287344587133704</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-10.158469124845086</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-8.3698002521212604</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-10.648029317152934</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-12.329564560454244</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-30.645760965675954</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-7.4202918505502824</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-0.56937690485808135</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>-28.294932267119645</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-36.636531790758056</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>-9.3175839813736054</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>-6.4093812964367407</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>-65.670215333170205</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>-76.245332370627125</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>-175.49237140251927</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>83.870728560505086</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>103.81890487507974</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>55.152736431664387</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>7.8094765580761338</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>4.9372128364875154</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>7.1856547926270133</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>23.746900825170371</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>9.5219953031454612</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>3.0778188342152268</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>-19.557446835128346</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>-6.3454897825796355</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>-12.601793390272389</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>21.554001560235104</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>-9.2529508060943932</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>-6.4873474460550486</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>1.1593227765750762</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>21.139439308595978</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>11.411726773598552</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>6.4412949507139414</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>-5.4463698261700877</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>7.165770805541186</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>13.420758663980543</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>5.4042365012356646</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>3.1710237799387317</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>1.0369654853032453E-2</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>7.0629289067303258</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>-3.9478034458565543</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>2.4513193414653731</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>-7.721700794234609</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>-3.1234806945305156</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>-4.5580534390614531</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>-3.3375639344808619</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>-2.8824725021610118</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>5.6421611285007414</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>2.7311912242987066</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>-1.4721288091376841</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>3.3893353207979802</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>5.5274915811962853</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>-4.3153629607049924</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>3.4722543933040577</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>-3.1879396980504349</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>0.93498739759256233</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>3.3254684463815374</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>3.0587353228475123</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>-3.8217571910555503</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>-3.2370273410518102</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>3.3710358715805313</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>-0.72700202538592429</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>3.6085138684619675</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>-5.3788092718821567E-2</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>13.49593619952792</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>2.3915738707249146</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>-1.2651963158712967</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>4.0801561644660751</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>-1.0887758610251577</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>-31.51908511220881</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>-35.725030703174404</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>-106.19666112693842</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>25.929073826484196</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>46.954633127289881</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>55.418826121189944</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>28.074884155277907</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>16.197074510065228</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>2.5281929685001416</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>1.9296924195918708</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-4E62-0E45-ACB1-6768ED4E4F29}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="1660484815"/>
-        <c:axId val="1737822815"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="1660484815"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="es-PE"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1737822815"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1737822815"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="es-PE"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1660484815"/>
+        <c:crossAx val="1976473087"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1183,46 +671,6 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -1739,543 +1187,27 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>228887</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>84954</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>27983</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>79644</xdr:colOff>
-      <xdr:row>82</xdr:row>
-      <xdr:rowOff>115950</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>553203</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>30997</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Gráfico 1">
+        <xdr:cNvPr id="7" name="Gráfico 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F0032F8-9CFC-53CA-CB15-2F062A7A3DF7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D92C1889-8D76-6EDA-3DB8-C1B57CB36E3E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2288,42 +1220,6 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>401090</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>171055</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>251847</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>8323</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Gráfico 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0051CCE8-4A09-7871-97EC-6F903D7E6B4D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2620,7 +1516,7 @@
   <dimension ref="A1:C88"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="177" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2652,8 +1548,8 @@
         <v>-5.3265093515641393</v>
       </c>
       <c r="C3">
-        <f>LN(B3/B2)*100</f>
-        <v>-0.86652274692386677</v>
+        <f>(B3-B2)/B2*100</f>
+        <v>-0.86277925909708286</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -2664,8 +1560,8 @@
         <v>-5.4140713942099206</v>
       </c>
       <c r="C4">
-        <f t="shared" ref="C4:C67" si="0">LN(B4/B3)*100</f>
-        <v>1.6305260331429101</v>
+        <f t="shared" ref="C4:C67" si="0">(B4-B3)/B3*100</f>
+        <v>1.6438916533595966</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -2677,7 +1573,7 @@
       </c>
       <c r="C5">
         <f t="shared" si="0"/>
-        <v>-2.8705304439045216</v>
+        <v>-2.8297221227773077</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -2689,7 +1585,7 @@
       </c>
       <c r="C6">
         <f t="shared" si="0"/>
-        <v>-11.615437108255811</v>
+        <v>-10.966222971708078</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -2701,7 +1597,7 @@
       </c>
       <c r="C7">
         <f t="shared" si="0"/>
-        <v>-15.014404205735898</v>
+        <v>-13.941599279404674</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -2713,7 +1609,7 @@
       </c>
       <c r="C8">
         <f t="shared" si="0"/>
-        <v>-13.287344587133704</v>
+        <v>-12.442410715832498</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -2725,7 +1621,7 @@
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
-        <v>-10.158469124845086</v>
+        <v>-9.6595334366743142</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -2737,7 +1633,7 @@
       </c>
       <c r="C10">
         <f t="shared" si="0"/>
-        <v>-8.3698002521212604</v>
+        <v>-8.029103605219122</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -2749,7 +1645,7 @@
       </c>
       <c r="C11">
         <f t="shared" si="0"/>
-        <v>-10.648029317152934</v>
+        <v>-10.100723571713131</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -2761,7 +1657,7 @@
       </c>
       <c r="C12">
         <f t="shared" si="0"/>
-        <v>-12.329564560454244</v>
+        <v>-11.599772746296209</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -2773,7 +1669,7 @@
       </c>
       <c r="C13">
         <f t="shared" si="0"/>
-        <v>-30.645760965675954</v>
+        <v>-26.395028108172276</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -2785,7 +1681,7 @@
       </c>
       <c r="C14">
         <f t="shared" si="0"/>
-        <v>-7.4202918505502824</v>
+        <v>-7.1516731712767347</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -2797,7 +1693,7 @@
       </c>
       <c r="C15">
         <f t="shared" si="0"/>
-        <v>-0.56937690485808135</v>
+        <v>-0.56775902662388245</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -2809,7 +1705,7 @@
       </c>
       <c r="C16">
         <f t="shared" si="0"/>
-        <v>-28.294932267119645</v>
+        <v>-24.644202480262546</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -2821,7 +1717,7 @@
       </c>
       <c r="C17">
         <f t="shared" si="0"/>
-        <v>-36.636531790758056</v>
+        <v>-30.675050151165635</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -2833,7 +1729,7 @@
       </c>
       <c r="C18">
         <f t="shared" si="0"/>
-        <v>-9.3175839813736054</v>
+        <v>-8.8966709713167162</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -2845,7 +1741,7 @@
       </c>
       <c r="C19">
         <f t="shared" si="0"/>
-        <v>-6.4093812964367407</v>
+        <v>-6.2082993371365864</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -2857,7 +1753,7 @@
       </c>
       <c r="C20">
         <f t="shared" si="0"/>
-        <v>-65.670215333170205</v>
+        <v>-48.144135538069627</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -2869,7 +1765,7 @@
       </c>
       <c r="C21">
         <f t="shared" si="0"/>
-        <v>-76.245332370627125</v>
+        <v>-53.34795038776349</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -2881,7 +1777,7 @@
       </c>
       <c r="C22">
         <f t="shared" si="0"/>
-        <v>-175.49237140251927</v>
+        <v>-82.707956680762024</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -2893,7 +1789,7 @@
       </c>
       <c r="C23">
         <f t="shared" si="0"/>
-        <v>83.870728560505086</v>
+        <v>131.33745104650922</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -2903,9 +1799,9 @@
       <c r="B24">
         <v>8.4535744781641275E-2</v>
       </c>
-      <c r="C24" t="e">
-        <f t="shared" si="0"/>
-        <v>#NUM!</v>
+      <c r="C24">
+        <f t="shared" si="0"/>
+        <v>-223.57327266254026</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -2917,7 +1813,7 @@
       </c>
       <c r="C25">
         <f t="shared" si="0"/>
-        <v>103.81890487507974</v>
+        <v>182.40980767373699</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
@@ -2929,7 +1825,7 @@
       </c>
       <c r="C26">
         <f t="shared" si="0"/>
-        <v>55.152736431664387</v>
+        <v>73.590234941079288</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
@@ -2941,7 +1837,7 @@
       </c>
       <c r="C27">
         <f t="shared" si="0"/>
-        <v>7.8094765580761338</v>
+        <v>8.122511674137888</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
@@ -2953,7 +1849,7 @@
       </c>
       <c r="C28">
         <f t="shared" si="0"/>
-        <v>4.9372128364875154</v>
+        <v>5.0611240247933402</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -2965,7 +1861,7 @@
       </c>
       <c r="C29">
         <f t="shared" si="0"/>
-        <v>7.1856547926270133</v>
+        <v>7.4501193583030183</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
@@ -2977,7 +1873,7 @@
       </c>
       <c r="C30">
         <f t="shared" si="0"/>
-        <v>23.746900825170371</v>
+        <v>26.80356975385773</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
@@ -2989,7 +1885,7 @@
       </c>
       <c r="C31">
         <f t="shared" si="0"/>
-        <v>9.5219953031454612</v>
+        <v>9.9900755027186978</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
@@ -3001,7 +1897,7 @@
       </c>
       <c r="C32">
         <f t="shared" si="0"/>
-        <v>3.0778188342152268</v>
+        <v>3.1256733749739336</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
@@ -3013,7 +1909,7 @@
       </c>
       <c r="C33">
         <f t="shared" si="0"/>
-        <v>-19.557446835128346</v>
+        <v>-17.763789866593754</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
@@ -3025,7 +1921,7 @@
       </c>
       <c r="C34">
         <f t="shared" si="0"/>
-        <v>-6.3454897825796355</v>
+        <v>-6.1483552521582485</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
@@ -3037,7 +1933,7 @@
       </c>
       <c r="C35">
         <f t="shared" si="0"/>
-        <v>-12.601793390272389</v>
+        <v>-11.840096386971233</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
@@ -3049,7 +1945,7 @@
       </c>
       <c r="C36">
         <f t="shared" si="0"/>
-        <v>21.554001560235104</v>
+        <v>24.053162255004121</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
@@ -3061,7 +1957,7 @@
       </c>
       <c r="C37">
         <f t="shared" si="0"/>
-        <v>-9.2529508060943932</v>
+        <v>-8.8377689639120618</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
@@ -3073,7 +1969,7 @@
       </c>
       <c r="C38">
         <f t="shared" si="0"/>
-        <v>-6.4873474460550486</v>
+        <v>-6.2813966155354217</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
@@ -3085,7 +1981,7 @@
       </c>
       <c r="C39">
         <f t="shared" si="0"/>
-        <v>1.1593227765750762</v>
+        <v>1.1660689679149703</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
@@ -3097,7 +1993,7 @@
       </c>
       <c r="C40">
         <f t="shared" si="0"/>
-        <v>21.139439308595978</v>
+        <v>23.539949201140516</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
@@ -3109,7 +2005,7 @@
       </c>
       <c r="C41">
         <f t="shared" si="0"/>
-        <v>11.411726773598552</v>
+        <v>12.088356065487615</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
@@ -3121,7 +2017,7 @@
       </c>
       <c r="C42">
         <f t="shared" si="0"/>
-        <v>6.4412949507139414</v>
+        <v>6.6532732003579023</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
@@ -3133,7 +2029,7 @@
       </c>
       <c r="C43">
         <f t="shared" si="0"/>
-        <v>-5.4463698261700877</v>
+        <v>-5.3007114278240168</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
@@ -3145,7 +2041,7 @@
       </c>
       <c r="C44">
         <f t="shared" si="0"/>
-        <v>7.165770805541186</v>
+        <v>7.4287561144488281</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
@@ -3157,7 +2053,7 @@
       </c>
       <c r="C45">
         <f t="shared" si="0"/>
-        <v>13.420758663980543</v>
+        <v>14.363019735542276</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
@@ -3169,7 +2065,7 @@
       </c>
       <c r="C46">
         <f t="shared" si="0"/>
-        <v>5.4042365012356646</v>
+        <v>5.5529318720494807</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
@@ -3181,7 +2077,7 @@
       </c>
       <c r="C47">
         <f t="shared" si="0"/>
-        <v>3.1710237799387317</v>
+        <v>3.2218364102609596</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
@@ -3193,7 +2089,7 @@
       </c>
       <c r="C48">
         <f t="shared" si="0"/>
-        <v>1.0369654853032453E-2</v>
+        <v>1.0370192520335069E-2</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
@@ -3205,7 +2101,7 @@
       </c>
       <c r="C49">
         <f t="shared" si="0"/>
-        <v>7.0629289067303258</v>
+        <v>7.3183311330981553</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
@@ -3217,7 +2113,7 @@
       </c>
       <c r="C50">
         <f t="shared" si="0"/>
-        <v>-3.9478034458565543</v>
+        <v>-3.8708930962496813</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
@@ -3229,7 +2125,7 @@
       </c>
       <c r="C51">
         <f t="shared" si="0"/>
-        <v>2.4513193414653731</v>
+        <v>2.4816111841913417</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
@@ -3241,7 +2137,7 @@
       </c>
       <c r="C52">
         <f t="shared" si="0"/>
-        <v>-7.721700794234609</v>
+        <v>-7.4311050045842375</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
@@ -3253,7 +2149,7 @@
       </c>
       <c r="C53">
         <f t="shared" si="0"/>
-        <v>-3.1234806945305156</v>
+        <v>-3.0752039798248338</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
@@ -3265,7 +2161,7 @@
       </c>
       <c r="C54">
         <f t="shared" si="0"/>
-        <v>-4.5580534390614531</v>
+        <v>-4.4557346518393235</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
@@ -3277,7 +2173,7 @@
       </c>
       <c r="C55">
         <f t="shared" si="0"/>
-        <v>-3.3375639344808619</v>
+        <v>-3.2824817707891349</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
@@ -3289,7 +2185,7 @@
       </c>
       <c r="C56">
         <f t="shared" si="0"/>
-        <v>-2.8824725021610118</v>
+        <v>-2.8413255611109332</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
@@ -3301,7 +2197,7 @@
       </c>
       <c r="C57">
         <f t="shared" si="0"/>
-        <v>5.6421611285007414</v>
+        <v>5.8043672865490805</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
@@ -3313,7 +2209,7 @@
       </c>
       <c r="C58">
         <f t="shared" si="0"/>
-        <v>2.7311912242987066</v>
+        <v>2.7688301340338723</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
@@ -3325,7 +2221,7 @@
       </c>
       <c r="C59">
         <f t="shared" si="0"/>
-        <v>-1.4721288091376841</v>
+        <v>-1.4613459702578873</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
@@ -3337,7 +2233,7 @@
       </c>
       <c r="C60">
         <f t="shared" si="0"/>
-        <v>3.3893353207979802</v>
+        <v>3.4474277481971431</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
@@ -3349,7 +2245,7 @@
       </c>
       <c r="C61">
         <f t="shared" si="0"/>
-        <v>5.5274915811962853</v>
+        <v>5.6831114326093575</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
@@ -3361,7 +2257,7 @@
       </c>
       <c r="C62">
         <f t="shared" si="0"/>
-        <v>-4.3153629607049924</v>
+        <v>-4.2235762179653653</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
@@ -3373,7 +2269,7 @@
       </c>
       <c r="C63">
         <f t="shared" si="0"/>
-        <v>3.4722543933040577</v>
+        <v>3.533240968663816</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
@@ -3385,7 +2281,7 @@
       </c>
       <c r="C64">
         <f t="shared" si="0"/>
-        <v>-3.1879396980504349</v>
+        <v>-3.1376606058812171</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
@@ -3397,7 +2293,7 @@
       </c>
       <c r="C65">
         <f t="shared" si="0"/>
-        <v>0.93498739759256233</v>
+        <v>0.93937205945205693</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
@@ -3409,7 +2305,7 @@
       </c>
       <c r="C66">
         <f t="shared" si="0"/>
-        <v>3.3254684463815374</v>
+        <v>3.3813802029266293</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
@@ -3421,7 +2317,7 @@
       </c>
       <c r="C67">
         <f t="shared" si="0"/>
-        <v>3.0587353228475123</v>
+        <v>3.1059952530704211</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
@@ -3432,8 +2328,8 @@
         <v>0.98616435315088158</v>
       </c>
       <c r="C68">
-        <f t="shared" ref="C68:C88" si="1">LN(B68/B67)*100</f>
-        <v>-3.8217571910555503</v>
+        <f t="shared" ref="C68:C88" si="1">(B68-B67)/B67*100</f>
+        <v>-3.7496495618089791</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
@@ -3445,7 +2341,7 @@
       </c>
       <c r="C69">
         <f t="shared" si="1"/>
-        <v>-3.2370273410518102</v>
+        <v>-3.1851963771964096</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
@@ -3457,7 +2353,7 @@
       </c>
       <c r="C70">
         <f t="shared" si="1"/>
-        <v>3.3710358715805313</v>
+        <v>3.4284991706551597</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
@@ -3469,7 +2365,7 @@
       </c>
       <c r="C71">
         <f t="shared" si="1"/>
-        <v>-0.72700202538592429</v>
+        <v>-0.72436575810207693</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
@@ -3481,7 +2377,7 @@
       </c>
       <c r="C72">
         <f t="shared" si="1"/>
-        <v>3.6085138684619675</v>
+        <v>3.6744109763353507</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
@@ -3493,7 +2389,7 @@
       </c>
       <c r="C73">
         <f t="shared" si="1"/>
-        <v>-5.3788092718821567E-2</v>
+        <v>-5.3773629517507526E-2</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
@@ -3505,7 +2401,7 @@
       </c>
       <c r="C74">
         <f t="shared" si="1"/>
-        <v>13.49593619952792</v>
+        <v>14.449027360512714</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
@@ -3517,7 +2413,7 @@
       </c>
       <c r="C75">
         <f t="shared" si="1"/>
-        <v>2.3915738707249146</v>
+        <v>2.4204013500394765</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
@@ -3529,7 +2425,7 @@
       </c>
       <c r="C76">
         <f t="shared" si="1"/>
-        <v>-1.2651963158712967</v>
+        <v>-1.2572263545764912</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
@@ -3541,7 +2437,7 @@
       </c>
       <c r="C77">
         <f t="shared" si="1"/>
-        <v>4.0801561644660751</v>
+        <v>4.164538263870357</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
@@ -3553,7 +2449,7 @@
       </c>
       <c r="C78">
         <f t="shared" si="1"/>
-        <v>-1.0887758610251577</v>
+        <v>-1.0828701494008728</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
@@ -3565,7 +2461,7 @@
       </c>
       <c r="C79">
         <f t="shared" si="1"/>
-        <v>-31.51908511220881</v>
+        <v>-27.03503934663604</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
@@ -3577,7 +2473,7 @@
       </c>
       <c r="C80">
         <f t="shared" si="1"/>
-        <v>-35.725030703174404</v>
+        <v>-30.040263832238541</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
@@ -3589,7 +2485,7 @@
       </c>
       <c r="C81">
         <f t="shared" si="1"/>
-        <v>-106.19666112693842</v>
+        <v>-65.422486404055817</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
@@ -3601,7 +2497,7 @@
       </c>
       <c r="C82">
         <f t="shared" si="1"/>
-        <v>25.929073826484196</v>
+        <v>29.601054991678755</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
@@ -3613,7 +2509,7 @@
       </c>
       <c r="C83">
         <f t="shared" si="1"/>
-        <v>46.954633127289881</v>
+        <v>59.92684905151112</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
@@ -3625,7 +2521,7 @@
       </c>
       <c r="C84">
         <f t="shared" si="1"/>
-        <v>55.418826121189944</v>
+        <v>74.052755745465319</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
@@ -3637,7 +2533,7 @@
       </c>
       <c r="C85">
         <f t="shared" si="1"/>
-        <v>28.074884155277907</v>
+        <v>32.4120997994821</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
@@ -3649,7 +2545,7 @@
       </c>
       <c r="C86">
         <f t="shared" si="1"/>
-        <v>16.197074510065228</v>
+        <v>17.582584215116746</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
@@ -3661,7 +2557,7 @@
       </c>
       <c r="C87">
         <f t="shared" si="1"/>
-        <v>2.5281929685001416</v>
+        <v>2.5604228045466728</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
@@ -3673,7 +2569,7 @@
       </c>
       <c r="C88">
         <f t="shared" si="1"/>
-        <v>1.9296924195918708</v>
+        <v>1.9484313240920255</v>
       </c>
     </row>
   </sheetData>
